--- a/story/Main Story and Others 主线剧情等/guide 导航文字/beg/1b_guide_1to2.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/beg/1b_guide_1to2.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   What just happened? Doctor hasn’t said a thing, as if time had stopped…
+    <t xml:space="preserve">[name="Amiya"]   What just happened? Doctor hasn't said a thing, as if time had stopped...
 </t>
   </si>
   <si>
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   So that’s what happened. Let’s get Doctor back in here. The battle isn’t over yet.
+    <t xml:space="preserve">[name="Amiya"]   So that's what happened. Let's get Doctor back in here. The battle isn't over yet.
 </t>
   </si>
   <si>
